--- a/note/etc/elasticsearch/elasticsearch.xlsx
+++ b/note/etc/elasticsearch/elasticsearch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>查询类型</t>
   </si>
@@ -30,18 +30,33 @@
     <t>使用方式</t>
   </si>
   <si>
+    <t>java api 是否有能通过QueyrBuilders创建</t>
+  </si>
+  <si>
     <t>IdsQuery</t>
   </si>
   <si>
+    <t xml:space="preserve"> QueryBuilders.idsQuery()</t>
+  </si>
+  <si>
     <t>MatchQuery</t>
   </si>
   <si>
+    <t xml:space="preserve"> QueryBuilders.matchAllQuery()</t>
+  </si>
+  <si>
     <t>RegexpQuery</t>
   </si>
   <si>
+    <t>QueryBuilders.regexpQuery(name, regexp)</t>
+  </si>
+  <si>
     <t>QueryStringQuery</t>
   </si>
   <si>
+    <t>QueryBuilders.queryStringQuery(queryString)</t>
+  </si>
+  <si>
     <t>PrefixQuery</t>
   </si>
   <si>
@@ -61,6 +76,9 @@
   </si>
   <si>
     <t>HasChildQuery</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>TermsSetQuery</t>
@@ -182,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -197,7 +215,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +299,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -219,122 +314,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,49 +367,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,12 +505,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,55 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,11 +561,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,17 +615,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,41 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,16 +678,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,115 +696,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,20 +1131,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,274 +1158,301 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1490,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
